--- a/data/negative_signals/Indirectly connected (A-X-B) - Carteolol - drug-induced liver injury.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Carteolol - drug-induced liver injury.xlsx
@@ -173,259 +173,259 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4035056</t>
+  </si>
+  <si>
+    <t>dilevalol</t>
+  </si>
+  <si>
+    <t>636875</t>
+  </si>
+  <si>
+    <t>drug-induced liver injury</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>62780289</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>13391219</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>4048132</t>
+  </si>
+  <si>
+    <t>nifedipine</t>
+  </si>
+  <si>
+    <t>52109328</t>
+  </si>
+  <si>
+    <t>14908559</t>
+  </si>
+  <si>
+    <t>837296</t>
+  </si>
+  <si>
+    <t>cardiac arrhythmia</t>
+  </si>
+  <si>
+    <t>14038873</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>40067092</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>4047943</t>
+  </si>
+  <si>
+    <t>haloperidol</t>
+  </si>
+  <si>
+    <t>72659058</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>16227887</t>
+  </si>
+  <si>
+    <t>5792455</t>
+  </si>
+  <si>
+    <t>atenolol</t>
+  </si>
+  <si>
+    <t>58215062</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>56056200</t>
+  </si>
+  <si>
+    <t>12911569</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>119934857</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>66904776</t>
+  </si>
+  <si>
+    <t>89898410</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>51694760</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>93190171</t>
+  </si>
+  <si>
+    <t>16218452</t>
+  </si>
+  <si>
+    <t>3781804</t>
+  </si>
+  <si>
+    <t>metabolic acidosis</t>
+  </si>
+  <si>
+    <t>14038858</t>
+  </si>
+  <si>
+    <t>40064978</t>
+  </si>
+  <si>
+    <t>564203</t>
+  </si>
+  <si>
+    <t>phentolamine</t>
+  </si>
+  <si>
+    <t>88506010</t>
+  </si>
+  <si>
+    <t>15625636</t>
+  </si>
+  <si>
+    <t>5291275</t>
+  </si>
+  <si>
+    <t>aldosterone</t>
+  </si>
+  <si>
+    <t>53319267</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>63533359</t>
+  </si>
+  <si>
+    <t>13272397</t>
+  </si>
+  <si>
+    <t>4047766</t>
+  </si>
+  <si>
+    <t>histamine</t>
+  </si>
+  <si>
+    <t>89468512</t>
+  </si>
+  <si>
+    <t>12721715</t>
+  </si>
+  <si>
+    <t>4042207</t>
+  </si>
+  <si>
+    <t>desipramine</t>
+  </si>
+  <si>
+    <t>68217311</t>
+  </si>
+  <si>
+    <t>14719138</t>
+  </si>
+  <si>
+    <t>4034783</t>
+  </si>
+  <si>
+    <t>hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>65367508</t>
+  </si>
+  <si>
+    <t>12766239</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>61516095</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>74602307</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>52109827</t>
+  </si>
+  <si>
+    <t>57089536</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>52054726</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
     <t>607167</t>
   </si>
   <si>
     <t>hypertensive disease</t>
   </si>
   <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>636875</t>
-  </si>
-  <si>
-    <t>drug-induced liver injury</t>
-  </si>
-  <si>
-    <t>136995958</t>
+    <t>14038927</t>
+  </si>
+  <si>
+    <t>70582059</t>
   </si>
   <si>
     <t>prevents</t>
   </si>
   <si>
-    <t>80235294</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>106251697</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>4035056</t>
-  </si>
-  <si>
-    <t>dilevalol</t>
-  </si>
-  <si>
-    <t>129226017</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>79641588</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>4048132</t>
-  </si>
-  <si>
-    <t>nifedipine</t>
-  </si>
-  <si>
-    <t>118321627</t>
-  </si>
-  <si>
-    <t>81163803</t>
-  </si>
-  <si>
-    <t>837296</t>
-  </si>
-  <si>
-    <t>cardiac arrhythmia</t>
-  </si>
-  <si>
-    <t>80235250</t>
-  </si>
-  <si>
-    <t>106253477</t>
-  </si>
-  <si>
-    <t>4047943</t>
-  </si>
-  <si>
-    <t>haloperidol</t>
-  </si>
-  <si>
-    <t>139006685</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>82454541</t>
-  </si>
-  <si>
-    <t>5792455</t>
-  </si>
-  <si>
-    <t>atenolol</t>
-  </si>
-  <si>
-    <t>122479474</t>
-  </si>
-  <si>
-    <t>124639630</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>79285285</t>
-  </si>
-  <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>117929967</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>156053556</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>186143315</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>133299092</t>
-  </si>
-  <si>
-    <t>159372791</t>
-  </si>
-  <si>
-    <t>82461481</t>
-  </si>
-  <si>
-    <t>3781804</t>
-  </si>
-  <si>
-    <t>metabolic acidosis</t>
-  </si>
-  <si>
-    <t>80235231</t>
-  </si>
-  <si>
-    <t>106251718</t>
-  </si>
-  <si>
-    <t>564203</t>
-  </si>
-  <si>
-    <t>phentolamine</t>
-  </si>
-  <si>
-    <t>154774795</t>
-  </si>
-  <si>
-    <t>81879137</t>
-  </si>
-  <si>
-    <t>5291275</t>
-  </si>
-  <si>
-    <t>aldosterone</t>
-  </si>
-  <si>
-    <t>129934764</t>
-  </si>
-  <si>
-    <t>119600511</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>79577492</t>
-  </si>
-  <si>
-    <t>4047766</t>
-  </si>
-  <si>
-    <t>histamine</t>
-  </si>
-  <si>
-    <t>155624778</t>
-  </si>
-  <si>
-    <t>82502388</t>
-  </si>
-  <si>
-    <t>4042207</t>
-  </si>
-  <si>
-    <t>desipramine</t>
-  </si>
-  <si>
-    <t>134596884</t>
-  </si>
-  <si>
-    <t>80936622</t>
-  </si>
-  <si>
-    <t>4034783</t>
-  </si>
-  <si>
-    <t>hydrochlorothiazide</t>
-  </si>
-  <si>
-    <t>131717908</t>
-  </si>
-  <si>
-    <t>82512862</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>118322089</t>
-  </si>
-  <si>
-    <t>127913540</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>138513100</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>123529137</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>118295831</t>
-  </si>
-  <si>
-    <t>is not process of</t>
+    <t>40064973</t>
   </si>
   <si>
     <t>4049124</t>
@@ -434,10 +434,43 @@
     <t>hyperthyroidism</t>
   </si>
   <si>
-    <t>124718055</t>
-  </si>
-  <si>
-    <t>106359440</t>
+    <t>58294279</t>
+  </si>
+  <si>
+    <t>40164434</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>72659305</t>
+  </si>
+  <si>
+    <t>62890163</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>54823515</t>
+  </si>
+  <si>
+    <t>115879272</t>
+  </si>
+  <si>
+    <t>87782981</t>
+  </si>
+  <si>
+    <t>72422109</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>88101354</t>
   </si>
   <si>
     <t>5806727</t>
@@ -446,10 +479,10 @@
     <t>abnormal renal function</t>
   </si>
   <si>
-    <t>132016725</t>
-  </si>
-  <si>
-    <t>106302982</t>
+    <t>65609665</t>
+  </si>
+  <si>
+    <t>40121744</t>
   </si>
   <si>
     <t>5699005</t>
@@ -458,13 +491,10 @@
     <t>falls</t>
   </si>
   <si>
-    <t>126900593</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>106253112</t>
+    <t>60468049</t>
+  </si>
+  <si>
+    <t>40066622</t>
   </si>
   <si>
     <t>4048530</t>
@@ -473,10 +503,10 @@
     <t>hypotension</t>
   </si>
   <si>
-    <t>149465895</t>
-  </si>
-  <si>
-    <t>106251774</t>
+    <t>83047344</t>
+  </si>
+  <si>
+    <t>40065002</t>
   </si>
   <si>
     <t>2786059</t>
@@ -488,10 +518,10 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>162162059</t>
-  </si>
-  <si>
-    <t>94718817</t>
+    <t>95959496</t>
+  </si>
+  <si>
+    <t>28344358</t>
   </si>
   <si>
     <t>gene product variant causes</t>
@@ -503,10 +533,10 @@
     <t>lymphoma</t>
   </si>
   <si>
-    <t>143370483</t>
-  </si>
-  <si>
-    <t>106251681</t>
+    <t>76883589</t>
+  </si>
+  <si>
+    <t>40064965</t>
   </si>
   <si>
     <t>1595282</t>
@@ -515,16 +545,55 @@
     <t>asthma</t>
   </si>
   <si>
-    <t>126052838</t>
-  </si>
-  <si>
-    <t>145284359</t>
+    <t>62880754</t>
+  </si>
+  <si>
+    <t>80887598</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
-    <t>106253536</t>
+    <t>40067175</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>56915998</t>
+  </si>
+  <si>
+    <t>91967428</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>83551469</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>122569924</t>
+  </si>
+  <si>
+    <t>53318550</t>
+  </si>
+  <si>
+    <t>53318584</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>66341755</t>
   </si>
   <si>
     <t>5308239</t>
@@ -533,79 +602,10 @@
     <t>woman</t>
   </si>
   <si>
-    <t>119236347</t>
-  </si>
-  <si>
-    <t>150043069</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>119599712</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>148049234</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>119599757</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>188771678</t>
-  </si>
-  <si>
-    <t>123357852</t>
-  </si>
-  <si>
-    <t>158155524</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>132831869</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>139006850</t>
-  </si>
-  <si>
-    <t>154100650</t>
-  </si>
-  <si>
-    <t>182076663</t>
-  </si>
-  <si>
-    <t>129332407</t>
-  </si>
-  <si>
-    <t>121210128</t>
-  </si>
-  <si>
-    <t>154304911</t>
-  </si>
-  <si>
-    <t>138801081</t>
+    <t>52955521</t>
+  </si>
+  <si>
+    <t>83664676</t>
   </si>
   <si>
     <t>6107559</t>
@@ -614,10 +614,10 @@
     <t>application procedure</t>
   </si>
   <si>
-    <t>195532952</t>
-  </si>
-  <si>
-    <t>178019582</t>
+    <t>129308361</t>
+  </si>
+  <si>
+    <t>111810711</t>
   </si>
   <si>
     <t>3208634</t>
@@ -626,10 +626,10 @@
     <t>evaluation procedure</t>
   </si>
   <si>
-    <t>135236601</t>
-  </si>
-  <si>
-    <t>181851441</t>
+    <t>68834082</t>
+  </si>
+  <si>
+    <t>115642939</t>
   </si>
   <si>
     <t>133368</t>
@@ -638,10 +638,10 @@
     <t>homo sapiens</t>
   </si>
   <si>
-    <t>165432730</t>
-  </si>
-  <si>
-    <t>156828100</t>
+    <t>99230647</t>
+  </si>
+  <si>
+    <t>90643660</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45.0</v>
+        <v>37.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -864,16 +864,16 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>58</v>
@@ -887,16 +887,10 @@
       <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -908,39 +902,39 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -952,34 +946,34 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
         <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -996,39 +990,39 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1040,34 +1034,40 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
         <v>78</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>81</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" t="s">
-        <v>69</v>
+      <c r="P6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1093,31 +1093,49 @@
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
         <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>89</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" t="s">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1134,63 +1152,39 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" t="s">
-        <v>98</v>
-      </c>
-      <c r="T8" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" t="s">
-        <v>99</v>
-      </c>
-      <c r="V8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1202,34 +1196,34 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>100</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>69</v>
-      </c>
-      <c r="M9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1246,33 +1240,39 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>104</v>
       </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>106</v>
       </c>
-      <c r="L10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
         <v>107</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1299,31 +1299,25 @@
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
         <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
         <v>111</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" t="s">
-        <v>113</v>
-      </c>
-      <c r="P11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -1340,34 +1334,34 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
         <v>114</v>
       </c>
-      <c r="F12" t="s">
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" t="s">
         <v>115</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s">
-        <v>117</v>
-      </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -1384,34 +1378,34 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
         <v>118</v>
       </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
         <v>119</v>
       </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" t="s">
-        <v>121</v>
-      </c>
       <c r="N13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -1428,39 +1422,57 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
         <v>122</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
         <v>123</v>
       </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>124</v>
-      </c>
-      <c r="L14" t="s">
-        <v>81</v>
       </c>
       <c r="M14" t="s">
         <v>125</v>
       </c>
       <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" t="s">
         <v>69</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -1472,52 +1484,40 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>134</v>
-      </c>
-      <c r="R15" t="s">
-        <v>135</v>
-      </c>
-      <c r="S15" t="s">
-        <v>136</v>
-      </c>
-      <c r="T15" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1540,33 +1540,33 @@
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
         <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
         <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -1584,28 +1584,58 @@
         <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
         <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="M17" t="s">
         <v>145</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R17" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" t="s">
+        <v>149</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>150</v>
+      </c>
+      <c r="V17" t="s">
+        <v>151</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -1622,34 +1652,34 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="M18" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1666,34 +1696,34 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
         <v>151</v>
       </c>
-      <c r="F19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" t="s">
-        <v>96</v>
-      </c>
       <c r="M19" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="N19" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -1710,34 +1740,34 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -1754,34 +1784,34 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N21" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
@@ -1798,45 +1828,39 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O22" t="s">
-        <v>170</v>
-      </c>
-      <c r="P22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -1848,39 +1872,45 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>180</v>
+      </c>
+      <c r="P23" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -1892,69 +1922,69 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O24" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q24" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="R24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="S24" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="T24" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="U24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="V24" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="W24" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="X24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1966,64 +1996,34 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N25" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" t="s">
-        <v>193</v>
-      </c>
-      <c r="P25" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>194</v>
-      </c>
-      <c r="R25" t="s">
-        <v>179</v>
-      </c>
-      <c r="S25" t="s">
-        <v>195</v>
-      </c>
-      <c r="T25" t="s">
-        <v>81</v>
-      </c>
-      <c r="U25" t="s">
-        <v>196</v>
-      </c>
-      <c r="V25" t="s">
-        <v>61</v>
-      </c>
-      <c r="W25" t="s">
-        <v>197</v>
-      </c>
-      <c r="X25" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -2046,28 +2046,28 @@
         <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
         <v>200</v>
       </c>
       <c r="L26" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -2090,28 +2090,28 @@
         <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s">
         <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s">
         <v>205</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -2134,28 +2134,28 @@
         <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s">
         <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
         <v>209</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
